--- a/sinomik/Template_tambah_siswa.xlsx
+++ b/sinomik/Template_tambah_siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\21kelompok1\sinomik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8D774-7BA9-4DFB-BEAF-020F1444CFD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B4FCA-9EE4-4954-854F-DBA2798FC09D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F69C571F-CBD4-4B1B-B1FB-A1A090DD8C3F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Kelas</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Jurusan</t>
   </si>
   <si>
-    <t>note ID</t>
-  </si>
-  <si>
-    <t>id_kelas</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -56,48 +50,9 @@
     <t>XII</t>
   </si>
   <si>
-    <t>id_agama</t>
-  </si>
-  <si>
-    <t>ISLAM</t>
-  </si>
-  <si>
-    <t>HINDU</t>
-  </si>
-  <si>
-    <t>BUDHA</t>
-  </si>
-  <si>
-    <t>KONGHUCU</t>
-  </si>
-  <si>
-    <t>KRISTEN</t>
-  </si>
-  <si>
-    <t>id_jurusan</t>
-  </si>
-  <si>
     <t>RPL</t>
   </si>
   <si>
-    <t>TKJ</t>
-  </si>
-  <si>
-    <t>TPM</t>
-  </si>
-  <si>
-    <t>TITL</t>
-  </si>
-  <si>
-    <t>TIPK</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>TKR</t>
-  </si>
-  <si>
     <t>98275r823161</t>
   </si>
   <si>
@@ -186,6 +141,15 @@
   </si>
   <si>
     <t>TKR2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SISWA</t>
+  </si>
+  <si>
+    <t>TAMBAH DATA SISWA</t>
   </si>
 </sst>
 </file>
@@ -233,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -300,21 +264,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,9 +332,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,349 +679,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F6AF2-C1A3-4D27-AAE1-45869F352702}">
-  <dimension ref="B3:T11"/>
+  <dimension ref="B1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+    </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="J3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>293468714672</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
         <v>37256</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>22</v>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
         <v>37257</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>245254254</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
         <v>37258</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>236772625225</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
         <v>37259</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>3</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3</v>
-      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>967362437589</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
         <v>37260</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>4</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="1">
-        <v>4</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="1">
-        <v>5</v>
-      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="1">
-        <v>6</v>
-      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="1">
-        <v>7</v>
-      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="B1:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sinomik/Template_tambah_siswa.xlsx
+++ b/sinomik/Template_tambah_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\21kelompok1\sinomik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B4FCA-9EE4-4954-854F-DBA2798FC09D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A08C6D8-CA62-426D-B7F9-87C1B6D46C3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F69C571F-CBD4-4B1B-B1FB-A1A090DD8C3F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="54">
   <si>
     <t>Kelas</t>
   </si>
@@ -134,22 +134,64 @@
     <t>hindu</t>
   </si>
   <si>
-    <t>TKJ 1</t>
-  </si>
-  <si>
-    <t>TPm2</t>
-  </si>
-  <si>
-    <t>TKR2</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>SISWA</t>
-  </si>
-  <si>
     <t>TAMBAH DATA SISWA</t>
+  </si>
+  <si>
+    <t>ID AGAMA</t>
+  </si>
+  <si>
+    <t>ID JURUSAN</t>
+  </si>
+  <si>
+    <t>Note ID</t>
+  </si>
+  <si>
+    <t>ID KELAS</t>
+  </si>
+  <si>
+    <t>KELAS</t>
+  </si>
+  <si>
+    <t>AGAMA</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>HINDU</t>
+  </si>
+  <si>
+    <t>BUDHA</t>
+  </si>
+  <si>
+    <t>KONGHUCU</t>
+  </si>
+  <si>
+    <t>KRISTEN</t>
+  </si>
+  <si>
+    <t>JURUSAN</t>
+  </si>
+  <si>
+    <t>TKJ</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>TITL</t>
+  </si>
+  <si>
+    <t>TIPK</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>TKR</t>
+  </si>
+  <si>
+    <t>TPm</t>
   </si>
 </sst>
 </file>
@@ -160,7 +202,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +224,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,32 +284,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -295,22 +327,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,7 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -331,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -343,28 +363,41 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F6AF2-C1A3-4D27-AAE1-45869F352702}">
-  <dimension ref="B1:T11"/>
+  <dimension ref="B1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,99 +723,113 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="11" max="11" width="17.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="12"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>293468714672</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>37256</v>
       </c>
       <c r="E4" t="s">
@@ -791,39 +838,43 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="25">
+        <v>1</v>
+      </c>
+      <c r="N4" s="25">
+        <v>2</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>37257</v>
       </c>
       <c r="E5" t="s">
@@ -832,39 +883,53 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5" s="25">
+        <v>2</v>
+      </c>
+      <c r="N5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S5" s="12"/>
+      <c r="T5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>245254254</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>37258</v>
       </c>
       <c r="E6" t="s">
@@ -873,39 +938,53 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+      <c r="N6" s="25">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="21">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>236772625225</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>37259</v>
       </c>
       <c r="E7" t="s">
@@ -914,39 +993,53 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>35</v>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="12">
+        <v>3</v>
+      </c>
+      <c r="M7" s="25">
+        <v>2</v>
+      </c>
+      <c r="N7" s="25">
+        <v>3</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="21">
+        <v>2</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>967362437589</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>37260</v>
       </c>
       <c r="E8" t="s">
@@ -955,46 +1048,136 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="26">
+        <v>2</v>
+      </c>
+      <c r="N8" s="26">
+        <v>7</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="21">
+        <v>3</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="12"/>
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="21">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="B1:N2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sinomik/Template_tambah_siswa.xlsx
+++ b/sinomik/Template_tambah_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\21kelompok1\sinomik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A08C6D8-CA62-426D-B7F9-87C1B6D46C3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7979B2E-CC62-419B-9E99-747B9EB37273}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F69C571F-CBD4-4B1B-B1FB-A1A090DD8C3F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Kelas</t>
   </si>
@@ -173,25 +173,46 @@
     <t>JURUSAN</t>
   </si>
   <si>
-    <t>TKJ</t>
-  </si>
-  <si>
-    <t>TPM</t>
-  </si>
-  <si>
     <t>TITL</t>
   </si>
   <si>
-    <t>TIPK</t>
-  </si>
-  <si>
     <t>TB</t>
   </si>
   <si>
-    <t>TKR</t>
-  </si>
-  <si>
-    <t>TPm</t>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SISWA</t>
+  </si>
+  <si>
+    <t>TKJ 1</t>
+  </si>
+  <si>
+    <t>TKJ 2</t>
+  </si>
+  <si>
+    <t>TIPK 1</t>
+  </si>
+  <si>
+    <t>TIPK 2</t>
+  </si>
+  <si>
+    <t>TKR 1</t>
+  </si>
+  <si>
+    <t>TKR 2</t>
+  </si>
+  <si>
+    <t>TKR 3</t>
+  </si>
+  <si>
+    <t>TPM 1</t>
+  </si>
+  <si>
+    <t>TPM 2</t>
+  </si>
+  <si>
+    <t>LULUS</t>
   </si>
 </sst>
 </file>
@@ -308,20 +329,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -331,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,40 +387,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F6AF2-C1A3-4D27-AAE1-45869F352702}">
-  <dimension ref="B1:U21"/>
+  <dimension ref="B1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,46 +756,49 @@
     <col min="12" max="12" width="9.140625" style="12"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
@@ -804,25 +829,28 @@
       <c r="K3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>293468714672</v>
       </c>
@@ -845,7 +873,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -856,18 +884,21 @@
       <c r="L4" s="12">
         <v>1</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="21">
         <v>1</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <v>2</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="O4" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="Q4" s="13"/>
-      <c r="S4" s="11"/>
+      <c r="R4" s="13"/>
       <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -901,28 +932,31 @@
       <c r="L5" s="12">
         <v>2</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="21">
         <v>2</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="21">
         <v>1</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="21" t="s">
+      <c r="O5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="S5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="V5" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>245254254</v>
       </c>
@@ -956,28 +990,31 @@
       <c r="L6" s="12">
         <v>1</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="21">
         <v>2</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="21">
         <v>1</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="21" t="s">
+      <c r="O6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="21">
+      <c r="S6" s="17">
         <v>1</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="21">
+      <c r="V6" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>236772625225</v>
       </c>
@@ -1000,7 +1037,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -1011,28 +1048,31 @@
       <c r="L7" s="12">
         <v>3</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="21">
         <v>2</v>
       </c>
-      <c r="N7" s="25">
-        <v>3</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="21" t="s">
+      <c r="N7" s="21">
+        <v>12</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="21">
+      <c r="S7" s="17">
         <v>2</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="21">
+      <c r="V7" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>967362437589</v>
       </c>
@@ -1055,7 +1095,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -1066,118 +1106,166 @@
       <c r="L8" s="12">
         <v>1</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="22">
         <v>2</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="22">
+        <v>9</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="17">
+        <v>3</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="20">
+        <v>4</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="12"/>
+      <c r="U10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="17">
         <v>7</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="21">
-        <v>3</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="S10" s="12"/>
-      <c r="T10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q17" s="23" t="s">
+    </row>
+    <row r="22" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="R17" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R21" s="21">
-        <v>7</v>
+      <c r="S24" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="17">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:N2"/>
+    <mergeCell ref="B1:O2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
